--- a/jpcore-r4/feature/swg2-DiagnosticReportRadiologyCodeの指定/StructureDefinition-jp-coverage.xlsx
+++ b/jpcore-r4/feature/swg2-DiagnosticReportRadiologyCodeの指定/StructureDefinition-jp-coverage.xlsx
@@ -612,8 +612,8 @@
 このカバレッジに割り当てられた一意の識別子。</t>
   </si>
   <si>
-    <t>The main (and possibly only) identifier for the coverage - often referred to as a Member Id, Certificate number, Personal Health Number or Case ID. May be constructed as the concatenation of the Coverage.SubscriberID and the Coverage.dependant.
-カバレッジのメイン（および場合によっては唯一の）識別子-多くの場合、メンバーID、証明書番号、個人の健康番号、またはケースIDと呼ばれる。 Coverage.SubscriberIDとCoverage.dependantの連結として構築できる。</t>
+    <t>The main (and possibly only) identifier for the coverage - often referred to as a Member Id, Certificate number, Personal Health Number or Case ID. May be constructed as the concatenation of the Coverage.SubscriberID and the Coverage.dependent.
+カバレッジのメイン（および場合によっては唯一の）識別子-多くの場合、メンバーID、証明書番号、個人の健康番号、またはケースIDと呼ばれる。 Coverage.SubscriberIDとCoverage.dependentの連結として構築できる。</t>
   </si>
   <si>
     <t>Allows coverages to be distinguished and referenced.
@@ -818,7 +818,7 @@
 補償対象の被扶養者の一意の識別子。</t>
   </si>
   <si>
-    <t>Periodically the member number is constructed from the subscriberId and the dependant number.
+    <t>Periodically the member number is constructed from the subscriberId and the dependent number.
 定期的に subscriberId と従属番号からメンバー番号を構築する。</t>
   </si>
   <si>
